--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H2">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I2">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J2">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.490130333333333</v>
+        <v>7.259676666666667</v>
       </c>
       <c r="N2">
-        <v>19.470391</v>
+        <v>21.77903</v>
       </c>
       <c r="O2">
-        <v>0.07425075126846777</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="P2">
-        <v>0.07641336284245376</v>
+        <v>0.08141203646611257</v>
       </c>
       <c r="Q2">
-        <v>3.116538952298889</v>
+        <v>1.12932982162</v>
       </c>
       <c r="R2">
-        <v>28.04885057069</v>
+        <v>10.16396839458</v>
       </c>
       <c r="S2">
-        <v>0.008797168435567736</v>
+        <v>0.003603398688824562</v>
       </c>
       <c r="T2">
-        <v>0.009952362641864413</v>
+        <v>0.004124761827085503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H3">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I3">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J3">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>99.667473</v>
       </c>
       <c r="O3">
-        <v>0.3800840336118431</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="P3">
-        <v>0.3911542802576211</v>
+        <v>0.3725662688540899</v>
       </c>
       <c r="Q3">
-        <v>15.95332943656333</v>
+        <v>5.168157144942</v>
       </c>
       <c r="R3">
-        <v>143.57996492907</v>
+        <v>46.513414304478</v>
       </c>
       <c r="S3">
-        <v>0.04503204622487548</v>
+        <v>0.0164902496358496</v>
       </c>
       <c r="T3">
-        <v>0.05094539883119092</v>
+        <v>0.0188761661117357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H4">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I4">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J4">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.63517166666667</v>
+        <v>27.342573</v>
       </c>
       <c r="N4">
-        <v>52.90551500000001</v>
+        <v>82.02771899999999</v>
       </c>
       <c r="O4">
-        <v>0.2017563096188048</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="P4">
-        <v>0.2076326209402719</v>
+        <v>0.3066272304349659</v>
       </c>
       <c r="Q4">
-        <v>8.468350650427778</v>
+        <v>4.253465341026</v>
       </c>
       <c r="R4">
-        <v>76.21515585385001</v>
+        <v>38.28118806923399</v>
       </c>
       <c r="S4">
-        <v>0.02390392296823702</v>
+        <v>0.01357170521790317</v>
       </c>
       <c r="T4">
-        <v>0.02704285039959379</v>
+        <v>0.01553534772182674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H5">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I5">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J5">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.421352</v>
+        <v>4.432244</v>
       </c>
       <c r="N5">
-        <v>14.842704</v>
+        <v>8.864488</v>
       </c>
       <c r="O5">
-        <v>0.08490445231856091</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="P5">
-        <v>0.05825157421415624</v>
+        <v>0.03313627926998665</v>
       </c>
       <c r="Q5">
-        <v>3.56370849256</v>
+        <v>0.689488741128</v>
       </c>
       <c r="R5">
-        <v>21.38225095536</v>
+        <v>4.136932446768</v>
       </c>
       <c r="S5">
-        <v>0.01005941024455608</v>
+        <v>0.002199979827129656</v>
       </c>
       <c r="T5">
-        <v>0.007586903251909604</v>
+        <v>0.001678858136430204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4801966666666667</v>
+        <v>0.155562</v>
       </c>
       <c r="H6">
-        <v>1.44059</v>
+        <v>0.466686</v>
       </c>
       <c r="I6">
-        <v>0.1184791841871053</v>
+        <v>0.04499457894025669</v>
       </c>
       <c r="J6">
-        <v>0.1302437462722826</v>
+        <v>0.05066525794134161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.63913333333333</v>
+        <v>18.39246133333333</v>
       </c>
       <c r="N6">
-        <v>67.9174</v>
+        <v>55.177384</v>
       </c>
       <c r="O6">
-        <v>0.2590044531823235</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="P6">
-        <v>0.266548161745497</v>
+        <v>0.2062581849748449</v>
       </c>
       <c r="Q6">
-        <v>10.87123636288889</v>
+        <v>2.861168069936</v>
       </c>
       <c r="R6">
-        <v>97.841127266</v>
+        <v>25.750512629424</v>
       </c>
       <c r="S6">
-        <v>0.030686636313869</v>
+        <v>0.009129245570549716</v>
       </c>
       <c r="T6">
-        <v>0.03471623114772385</v>
+        <v>0.01045012414426347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J7">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.490130333333333</v>
+        <v>7.259676666666667</v>
       </c>
       <c r="N7">
-        <v>19.470391</v>
+        <v>21.77903</v>
       </c>
       <c r="O7">
-        <v>0.07425075126846777</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="P7">
-        <v>0.07641336284245376</v>
+        <v>0.08141203646611257</v>
       </c>
       <c r="Q7">
-        <v>11.34839743929078</v>
+        <v>12.69399717151222</v>
       </c>
       <c r="R7">
-        <v>102.135576953617</v>
+        <v>114.24597454361</v>
       </c>
       <c r="S7">
-        <v>0.03203353632835713</v>
+        <v>0.04050325413186607</v>
       </c>
       <c r="T7">
-        <v>0.03623999842405806</v>
+        <v>0.04636352814191699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J8">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>99.667473</v>
       </c>
       <c r="O8">
-        <v>0.3800840336118431</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="P8">
-        <v>0.3911542802576211</v>
+        <v>0.3725662688540899</v>
       </c>
       <c r="Q8">
         <v>58.09159638210566</v>
@@ -948,10 +948,10 @@
         <v>522.8243674389511</v>
       </c>
       <c r="S8">
-        <v>0.1639772728293466</v>
+        <v>0.1853552241582798</v>
       </c>
       <c r="T8">
-        <v>0.1855098371907297</v>
+        <v>0.2121736224831524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J9">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.63517166666667</v>
+        <v>27.342573</v>
       </c>
       <c r="N9">
-        <v>52.90551500000001</v>
+        <v>82.02771899999999</v>
       </c>
       <c r="O9">
-        <v>0.2017563096188048</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="P9">
-        <v>0.2076326209402719</v>
+        <v>0.3066272304349659</v>
       </c>
       <c r="Q9">
-        <v>30.83619691820056</v>
+        <v>47.810193244217</v>
       </c>
       <c r="R9">
-        <v>277.525772263805</v>
+        <v>430.2917391979529</v>
       </c>
       <c r="S9">
-        <v>0.08704246035546712</v>
+        <v>0.1525499321372117</v>
       </c>
       <c r="T9">
-        <v>0.09847238199910728</v>
+        <v>0.1746218476338826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.245687</v>
       </c>
       <c r="I10">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J10">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.421352</v>
+        <v>4.432244</v>
       </c>
       <c r="N10">
-        <v>14.842704</v>
+        <v>8.864488</v>
       </c>
       <c r="O10">
-        <v>0.08490445231856091</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="P10">
-        <v>0.05825157421415624</v>
+        <v>0.03313627926998665</v>
       </c>
       <c r="Q10">
-        <v>12.976696569608</v>
+        <v>7.750054910542667</v>
       </c>
       <c r="R10">
-        <v>77.860179417648</v>
+        <v>46.500329463256</v>
       </c>
       <c r="S10">
-        <v>0.03662979581111533</v>
+        <v>0.02472841606441223</v>
       </c>
       <c r="T10">
-        <v>0.02762654173553886</v>
+        <v>0.01887085599550051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.245687</v>
       </c>
       <c r="I11">
-        <v>0.4314237335125913</v>
+        <v>0.5057522141597954</v>
       </c>
       <c r="J11">
-        <v>0.4742625775909948</v>
+        <v>0.5694923030357509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.63913333333333</v>
+        <v>18.39246133333333</v>
       </c>
       <c r="N11">
-        <v>67.9174</v>
+        <v>55.177384</v>
       </c>
       <c r="O11">
-        <v>0.2590044531823235</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="P11">
-        <v>0.266548161745497</v>
+        <v>0.2062581849748449</v>
       </c>
       <c r="Q11">
-        <v>39.58593580597778</v>
+        <v>32.16036510475644</v>
       </c>
       <c r="R11">
-        <v>356.2734222538</v>
+        <v>289.443285942808</v>
       </c>
       <c r="S11">
-        <v>0.1117406681883052</v>
+        <v>0.1026153876680257</v>
       </c>
       <c r="T11">
-        <v>0.1264138182415608</v>
+        <v>0.1174624487812983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H12">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I12">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J12">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.490130333333333</v>
+        <v>7.259676666666667</v>
       </c>
       <c r="N12">
-        <v>19.470391</v>
+        <v>21.77903</v>
       </c>
       <c r="O12">
-        <v>0.07425075126846777</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="P12">
-        <v>0.07641336284245376</v>
+        <v>0.08141203646611257</v>
       </c>
       <c r="Q12">
-        <v>1.043909340218556</v>
+        <v>1.553677281924445</v>
       </c>
       <c r="R12">
-        <v>9.395184061966999</v>
+        <v>13.98309553732</v>
       </c>
       <c r="S12">
-        <v>0.002946681058034242</v>
+        <v>0.004957381425128839</v>
       </c>
       <c r="T12">
-        <v>0.003333622482536549</v>
+        <v>0.005674647584262834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H13">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I13">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J13">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>99.667473</v>
       </c>
       <c r="O13">
-        <v>0.3800840336118431</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="P13">
-        <v>0.3911542802576211</v>
+        <v>0.3725662688540899</v>
       </c>
       <c r="Q13">
-        <v>5.343693713222333</v>
+        <v>7.110100337201334</v>
       </c>
       <c r="R13">
-        <v>48.093243419001</v>
+        <v>63.99090303481201</v>
       </c>
       <c r="S13">
-        <v>0.015083839599895</v>
+        <v>0.02268648692525471</v>
       </c>
       <c r="T13">
-        <v>0.01706456376610026</v>
+        <v>0.02596891527717402</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H14">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I14">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J14">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.63517166666667</v>
+        <v>27.342573</v>
       </c>
       <c r="N14">
-        <v>52.90551500000001</v>
+        <v>82.02771899999999</v>
       </c>
       <c r="O14">
-        <v>0.2017563096188048</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="P14">
-        <v>0.2076326209402719</v>
+        <v>0.3066272304349659</v>
       </c>
       <c r="Q14">
-        <v>2.836540943506111</v>
+        <v>5.851711646404</v>
       </c>
       <c r="R14">
-        <v>25.528868491555</v>
+        <v>52.665404817636</v>
       </c>
       <c r="S14">
-        <v>0.008006807819937796</v>
+        <v>0.018671294842621</v>
       </c>
       <c r="T14">
-        <v>0.009058216358067729</v>
+        <v>0.02137277911210649</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H15">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I15">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J15">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.421352</v>
+        <v>4.432244</v>
       </c>
       <c r="N15">
-        <v>14.842704</v>
+        <v>8.864488</v>
       </c>
       <c r="O15">
-        <v>0.08490445231856091</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="P15">
-        <v>0.05825157421415624</v>
+        <v>0.03313627926998665</v>
       </c>
       <c r="Q15">
-        <v>1.193692310008</v>
+        <v>0.9485652222453334</v>
       </c>
       <c r="R15">
-        <v>7.162153860048</v>
+        <v>5.691391333472001</v>
       </c>
       <c r="S15">
-        <v>0.003369478922647912</v>
+        <v>0.003026625714355334</v>
       </c>
       <c r="T15">
-        <v>0.002541293174648377</v>
+        <v>0.00230969172708458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1608456666666667</v>
+        <v>0.2140146666666667</v>
       </c>
       <c r="H16">
-        <v>0.482537</v>
+        <v>0.6420440000000001</v>
       </c>
       <c r="I16">
-        <v>0.03968553863354128</v>
+        <v>0.06190136288879069</v>
       </c>
       <c r="J16">
-        <v>0.04362617163453059</v>
+        <v>0.06970280846155817</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.63913333333333</v>
+        <v>18.39246133333333</v>
       </c>
       <c r="N16">
-        <v>67.9174</v>
+        <v>55.177384</v>
       </c>
       <c r="O16">
-        <v>0.2590044531823235</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="P16">
-        <v>0.266548161745497</v>
+        <v>0.2062581849748449</v>
       </c>
       <c r="Q16">
-        <v>3.641406493755555</v>
+        <v>3.936256481432889</v>
       </c>
       <c r="R16">
-        <v>32.7726584438</v>
+        <v>35.42630833289601</v>
       </c>
       <c r="S16">
-        <v>0.01027873123302633</v>
+        <v>0.01255957398143082</v>
       </c>
       <c r="T16">
-        <v>0.01162847585317767</v>
+        <v>0.01437677476093025</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H17">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I17">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J17">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.490130333333333</v>
+        <v>7.259676666666667</v>
       </c>
       <c r="N17">
-        <v>19.470391</v>
+        <v>21.77903</v>
       </c>
       <c r="O17">
-        <v>0.07425075126846777</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="P17">
-        <v>0.07641336284245376</v>
+        <v>0.08141203646611257</v>
       </c>
       <c r="Q17">
-        <v>7.128048488861833</v>
+        <v>8.427653377021667</v>
       </c>
       <c r="R17">
-        <v>42.768290933171</v>
+        <v>50.56592026213</v>
       </c>
       <c r="S17">
-        <v>0.02012060305781084</v>
+        <v>0.02689045710761912</v>
       </c>
       <c r="T17">
-        <v>0.01517515093415141</v>
+        <v>0.0205207621227852</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H18">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I18">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J18">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>99.667473</v>
       </c>
       <c r="O18">
-        <v>0.3800840336118431</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="P18">
-        <v>0.3911542802576211</v>
+        <v>0.3725662688540899</v>
       </c>
       <c r="Q18">
-        <v>36.4879462516355</v>
+        <v>38.56750807578049</v>
       </c>
       <c r="R18">
-        <v>218.927677509813</v>
+        <v>231.405048454683</v>
       </c>
       <c r="S18">
-        <v>0.1029958598164813</v>
+        <v>0.1230589198752785</v>
       </c>
       <c r="T18">
-        <v>0.07768046085979785</v>
+        <v>0.09390925605098652</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H19">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I19">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J19">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.63517166666667</v>
+        <v>27.342573</v>
       </c>
       <c r="N19">
-        <v>52.90551500000001</v>
+        <v>82.02771899999999</v>
       </c>
       <c r="O19">
-        <v>0.2017563096188048</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="P19">
-        <v>0.2076326209402719</v>
+        <v>0.3066272304349659</v>
       </c>
       <c r="Q19">
-        <v>19.36854150736917</v>
+        <v>31.7415965283915</v>
       </c>
       <c r="R19">
-        <v>116.211249044215</v>
+        <v>190.449579170349</v>
       </c>
       <c r="S19">
-        <v>0.0546722901909909</v>
+        <v>0.1012792057040802</v>
       </c>
       <c r="T19">
-        <v>0.04123436326337829</v>
+        <v>0.07728862621859964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H20">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I20">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J20">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.421352</v>
+        <v>4.432244</v>
       </c>
       <c r="N20">
-        <v>14.842704</v>
+        <v>8.864488</v>
       </c>
       <c r="O20">
-        <v>0.08490445231856091</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="P20">
-        <v>0.05825157421415624</v>
+        <v>0.03313627926998665</v>
       </c>
       <c r="Q20">
-        <v>8.150800398756001</v>
+        <v>5.145327792062</v>
       </c>
       <c r="R20">
-        <v>32.603201595024</v>
+        <v>20.581311168248</v>
       </c>
       <c r="S20">
-        <v>0.02300756226379182</v>
+        <v>0.01641740708918197</v>
       </c>
       <c r="T20">
-        <v>0.01156834875431792</v>
+        <v>0.008352348547583799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0982905</v>
+        <v>1.1608855</v>
       </c>
       <c r="H21">
-        <v>2.196581</v>
+        <v>2.321771</v>
       </c>
       <c r="I21">
-        <v>0.2709818111477547</v>
+        <v>0.3357732239901092</v>
       </c>
       <c r="J21">
-        <v>0.1985928948767635</v>
+        <v>0.2520605430540592</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.63913333333333</v>
+        <v>18.39246133333333</v>
       </c>
       <c r="N21">
-        <v>67.9174</v>
+        <v>55.177384</v>
       </c>
       <c r="O21">
-        <v>0.2590044531823235</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="P21">
-        <v>0.266548161745497</v>
+        <v>0.2062581849748449</v>
       </c>
       <c r="Q21">
-        <v>24.86434506823333</v>
+        <v>21.35154167117733</v>
       </c>
       <c r="R21">
-        <v>149.1860704094</v>
+        <v>128.109250027064</v>
       </c>
       <c r="S21">
-        <v>0.07018549581867987</v>
+        <v>0.06812723421394938</v>
       </c>
       <c r="T21">
-        <v>0.05293457106511804</v>
+        <v>0.051989550114104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H22">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I22">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J22">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.490130333333333</v>
+        <v>7.259676666666667</v>
       </c>
       <c r="N22">
-        <v>19.470391</v>
+        <v>21.77903</v>
       </c>
       <c r="O22">
-        <v>0.07425075126846777</v>
+        <v>0.0800851741186225</v>
       </c>
       <c r="P22">
-        <v>0.07641336284245376</v>
+        <v>0.08141203646611257</v>
       </c>
       <c r="Q22">
-        <v>3.667633225916445</v>
+        <v>1.294584261475556</v>
       </c>
       <c r="R22">
-        <v>33.008699033248</v>
+        <v>11.65125835328</v>
       </c>
       <c r="S22">
-        <v>0.01035276238869781</v>
+        <v>0.00413068276518389</v>
       </c>
       <c r="T22">
-        <v>0.01171222835984334</v>
+        <v>0.004728336790062042</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H23">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I23">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J23">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>99.667473</v>
       </c>
       <c r="O23">
-        <v>0.3800840336118431</v>
+        <v>0.3664941427220637</v>
       </c>
       <c r="P23">
-        <v>0.3911542802576211</v>
+        <v>0.3725662688540899</v>
       </c>
       <c r="Q23">
-        <v>18.77433974068267</v>
+        <v>5.924411781738667</v>
       </c>
       <c r="R23">
-        <v>168.969057666144</v>
+        <v>53.319706035648</v>
       </c>
       <c r="S23">
-        <v>0.0529950151412447</v>
+        <v>0.01890326212740102</v>
       </c>
       <c r="T23">
-        <v>0.05995401960980239</v>
+        <v>0.02163830893104125</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H24">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I24">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J24">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.63517166666667</v>
+        <v>27.342573</v>
       </c>
       <c r="N24">
-        <v>52.90551500000001</v>
+        <v>82.02771899999999</v>
       </c>
       <c r="O24">
-        <v>0.2017563096188048</v>
+        <v>0.301629786022079</v>
       </c>
       <c r="P24">
-        <v>0.2076326209402719</v>
+        <v>0.3066272304349659</v>
       </c>
       <c r="Q24">
-        <v>9.96580010376889</v>
+        <v>4.875873444415999</v>
       </c>
       <c r="R24">
-        <v>89.69220093392001</v>
+        <v>43.882860999744</v>
       </c>
       <c r="S24">
-        <v>0.028130828284172</v>
+        <v>0.0155576481202628</v>
       </c>
       <c r="T24">
-        <v>0.03182480892012477</v>
+        <v>0.01780862974855038</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H25">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I25">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J25">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.421352</v>
+        <v>4.432244</v>
       </c>
       <c r="N25">
-        <v>14.842704</v>
+        <v>8.864488</v>
       </c>
       <c r="O25">
-        <v>0.08490445231856091</v>
+        <v>0.04889433080484575</v>
       </c>
       <c r="P25">
-        <v>0.05825157421415624</v>
+        <v>0.03313627926998665</v>
       </c>
       <c r="Q25">
-        <v>4.193875281152</v>
+        <v>0.7903813887146667</v>
       </c>
       <c r="R25">
-        <v>25.163251686912</v>
+        <v>4.742288332288</v>
       </c>
       <c r="S25">
-        <v>0.01183820507644976</v>
+        <v>0.002521902109766556</v>
       </c>
       <c r="T25">
-        <v>0.008928487297741485</v>
+        <v>0.001924524863387556</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5651093333333334</v>
+        <v>0.1783253333333333</v>
       </c>
       <c r="H26">
-        <v>1.695328</v>
+        <v>0.534976</v>
       </c>
       <c r="I26">
-        <v>0.1394297325190074</v>
+        <v>0.05157862002104791</v>
       </c>
       <c r="J26">
-        <v>0.1532746096254287</v>
+        <v>0.05807908750729007</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.63913333333333</v>
+        <v>18.39246133333333</v>
       </c>
       <c r="N26">
-        <v>67.9174</v>
+        <v>55.177384</v>
       </c>
       <c r="O26">
-        <v>0.2590044531823235</v>
+        <v>0.2028965663323893</v>
       </c>
       <c r="P26">
-        <v>0.266548161745497</v>
+        <v>0.2062581849748449</v>
       </c>
       <c r="Q26">
-        <v>12.79358554524445</v>
+        <v>3.279841798087111</v>
       </c>
       <c r="R26">
-        <v>115.1422699072</v>
+        <v>29.518576182784</v>
       </c>
       <c r="S26">
-        <v>0.03611292162844314</v>
+        <v>0.01046512489843365</v>
       </c>
       <c r="T26">
-        <v>0.04085506543791667</v>
+        <v>0.01197928717424884</v>
       </c>
     </row>
   </sheetData>
